--- a/dataInfo.xlsx
+++ b/dataInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\AutoTest\AutoTestD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FF9F39-4429-4CCA-B06D-7D147CE77B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BD2EF-9F13-4B19-B25F-0FB5CF6A3D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Business Email</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>dummy-email2@yopmail.com</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>Dummy2</t>
+  </si>
+  <si>
+    <t>123-123-1235</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Select...</t>
   </si>
 </sst>
 </file>
@@ -125,10 +143,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,7 +432,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,11 +500,35 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{4253AC79-C07A-4A92-ACFC-99F7E0182F0F}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{7DD2E148-64BC-4F71-82D1-B76DEE177C6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
